--- a/src/results_blank.xlsx
+++ b/src/results_blank.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26612"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85119B53-4A78-4AC1-AA85-BD847655B89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4033B50A-8716-4FA8-B6AC-430250008D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="blank" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,27 +28,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Timestamp</t>
   </si>
   <si>
-    <t>Fiery Color</t>
-  </si>
-  <si>
-    <t>War Color</t>
-  </si>
-  <si>
-    <t>Fiery Final Score</t>
-  </si>
-  <si>
-    <t>War Final Score</t>
-  </si>
-  <si>
-    <t>Fiery Scored</t>
-  </si>
-  <si>
-    <t>War Scored</t>
+    <t>Red Team</t>
+  </si>
+  <si>
+    <t>Blue Team</t>
+  </si>
+  <si>
+    <t>Red Final Score</t>
+  </si>
+  <si>
+    <t>Blue Final Score</t>
+  </si>
+  <si>
+    <t>Red Scored</t>
+  </si>
+  <si>
+    <t>Blue Scored</t>
   </si>
   <si>
     <t>Great victory?</t>
@@ -57,32 +57,41 @@
     <t>Winner</t>
   </si>
   <si>
+    <t>First scorer</t>
+  </si>
+  <si>
     <t>End time</t>
   </si>
   <si>
-    <t>Fiery wins:</t>
-  </si>
-  <si>
-    <t>Fiery great victories:</t>
-  </si>
-  <si>
-    <t>War wins:</t>
-  </si>
-  <si>
-    <t>War great victories:</t>
-  </si>
-  <si>
-    <t>Ties:</t>
+    <t>Remaining Time</t>
   </si>
   <si>
     <t>Total games:</t>
+  </si>
+  <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>Total wins:</t>
+  </si>
+  <si>
+    <t>Total great victories:</t>
+  </si>
+  <si>
+    <t>FIERY DRAGON</t>
+  </si>
+  <si>
+    <t>WAR DRAGON</t>
+  </si>
+  <si>
+    <t>夢一城CITYU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,7 +103,11 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,22 +130,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="47" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,250 +453,314 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A2" sqref="A2:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="15.85546875" style="3" customWidth="1"/>
-    <col min="6" max="7" width="12.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="3" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="3"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <f>COUNT(A:A)</f>
+        <v>0</v>
+      </c>
       <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="1">
-        <f>COUNTIF(I:I,  "FIERY")</f>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="4">
+        <f>TIME(0,3,0)-K2</f>
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="1">
+        <f>COUNTIF(I:I, N5)</f>
         <v>0</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="6">
-        <f>COUNTIFS(H:H, "TRUE", I:I, "FIERY")</f>
+      <c r="P5" s="1">
+        <f>COUNTIFS(H:H, "TRUE", I:I, N5)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="1">
-        <f>COUNTIF(I:I,  "WAR")</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="6">
-        <f>COUNTIFS(H:H, "TRUE", I:I, "WAR")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="1">
-        <f>COUNTIF(I:I,  "TIE")</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="6">
-        <f>M2 + M3 + M4</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="N6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="1">
+        <f>COUNTIF(I:I, N6)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <f>COUNTIFS(H:H, "TRUE", I:I, N6)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="N7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="1">
+        <f>COUNTIF(I:I, N7)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <f>COUNTIFS(H:H, "TRUE", I:I, N7)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="J12" s="5"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="9:9">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="9:9">
+      <c r="I18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -707,6 +777,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Date xmlns="d3d13088-1987-40a6-ac29-e1d852c1a86d" xsi:nil="true"/>
+    <TaxCatchAll xmlns="f9f50f5b-78e8-4670-9c83-402cd6174625" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d3d13088-1987-40a6-ac29-e1d852c1a86d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004ADB0767B26E5D479FB7B1D7204D2171" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f6052a43a25b157841639f12cf8fcc5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3d13088-1987-40a6-ac29-e1d852c1a86d" xmlns:ns3="f9f50f5b-78e8-4670-9c83-402cd6174625" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53db21d6e63a5baf7b868a3747510ec4" ns2:_="" ns3:_="">
     <xsd:import namespace="d3d13088-1987-40a6-ac29-e1d852c1a86d"/>
@@ -941,26 +1023,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Date xmlns="d3d13088-1987-40a6-ac29-e1d852c1a86d" xsi:nil="true"/>
-    <TaxCatchAll xmlns="f9f50f5b-78e8-4670-9c83-402cd6174625" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d3d13088-1987-40a6-ac29-e1d852c1a86d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{107E486C-65C1-4E93-8C3D-6F85FDB9CCD2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{378357D7-ACD4-40AE-AB33-E8588FB0B8AB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03C6D0AD-630F-4ED0-BCC3-C70BE619439E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12482375-38BC-4777-BE7A-CE143C119FF5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53543C85-C2FE-4DB4-802D-A69B427293BC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DB84744-3E64-41F3-ACB2-58D2B5154ABF}"/>
 </file>
--- a/src/results_blank.xlsx
+++ b/src/results_blank.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26612"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4033B50A-8716-4FA8-B6AC-430250008D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89E023F2-5C54-44F6-A172-C1BE39569694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Timestamp</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>WAR DRAGON</t>
-  </si>
-  <si>
-    <t>夢一城CITYU</t>
   </si>
 </sst>
 </file>
@@ -455,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -656,17 +653,9 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" s="1">
-        <f>COUNTIF(I:I, N7)</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <f>COUNTIFS(H:H, "TRUE", I:I, N7)</f>
-        <v>0</v>
-      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17">
